--- a/web/WEB-INF/download/goodsInfo.xlsx
+++ b/web/WEB-INF/download/goodsInfo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF39582-86F1-4BBE-B487-4AC3100CDFBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="32370" yWindow="1815" windowWidth="21600" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,39 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>货物名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -72,8 +61,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -92,7 +83,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -167,6 +158,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -202,6 +210,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,27 +402,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
